--- a/礼尚往来/礼尚往来.xlsx
+++ b/礼尚往来/礼尚往来.xlsx
@@ -353,11 +353,139 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="9" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <top/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -388,148 +516,20 @@
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="2" name="姓名" dataDxfId="5"/>
-    <tableColumn id="3" name="分组" dataDxfId="4"/>
-    <tableColumn id="4" name="日期" dataDxfId="3"/>
-    <tableColumn id="5" name="金额" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="4"/>
+    <tableColumn id="2" name="姓名" dataDxfId="3"/>
+    <tableColumn id="3" name="分组" dataDxfId="2"/>
+    <tableColumn id="4" name="日期" dataDxfId="1"/>
+    <tableColumn id="5" name="金额" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,7 +823,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -898,8 +898,12 @@
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="8">
+        <v>43050</v>
+      </c>
+      <c r="E4" s="7">
+        <v>400</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5">
@@ -1064,7 +1068,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14">
         <f>SUM(E2:E14)</f>
-        <v>3200</v>
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
